--- a/biology/Zoologie/Dicée_concolore/Dicée_concolore.xlsx
+++ b/biology/Zoologie/Dicée_concolore/Dicée_concolore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_concolore</t>
+          <t>Dicée_concolore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicaeum concolor
 Le Dicée concolore (Dicaeum concolor) est une espèce de passereau placée dans la famille des Dicaeidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_concolore</t>
+          <t>Dicée_concolore</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un très petit oiseau trapu de 9 cm de longueur, avec une queue courte, un bec court, épais et recourbé et à la langue tubulaire. Comme son nom l'indique, cette espèce n'a pas le plumage de couleur vive typique des Dicées mâles. Il a le dos brun et le ventre blanc grisâtre. Certaines sous-espèces comme D. c. olivaceum ont les parties du dos plus vertes et D. c. virescens est encore plus caractéristique, avec un dos vert, une poitrine vert pâle et un ventre jaune.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_concolore</t>
+          <t>Dicée_concolore</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa langue tubulaire montre l'importance de nectar dans son régime alimentaire, bien qu'il se nourrisse également de baies, d'araignées et d'insectes.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_concolore</t>
+          <t>Dicée_concolore</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond deux ou trois œufs dans un nid suspendu comme un sac à un arbre ou un buisson.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_concolore</t>
+          <t>Dicée_concolore</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans les régions tropicales d'Asie du Sud, de l'Inde jusqu'en Indonésie.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_concolore</t>
+          <t>Dicée_concolore</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit à l'orée des bois, dans les champs et les arbres isolés, souvent dans des régions montagneuses.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dic%C3%A9e_concolore</t>
+          <t>Dicée_concolore</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Selon Peterson
 Dicaeum concolor borneanum Lonnberg 1925 
